--- a/data/pca/factorExposure/factorExposure_2018-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0119493537650425</v>
+        <v>-0.008140946635896547</v>
       </c>
       <c r="C2">
-        <v>0.00606666087413412</v>
+        <v>-0.02871743293775416</v>
       </c>
       <c r="D2">
-        <v>-0.02261608209394556</v>
+        <v>0.02774312009458612</v>
       </c>
       <c r="E2">
-        <v>0.0587526386708174</v>
+        <v>-0.02454770403376504</v>
       </c>
       <c r="F2">
-        <v>0.0345485851371513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03473663805964904</v>
+      </c>
+      <c r="G2">
+        <v>0.007702936766482271</v>
+      </c>
+      <c r="H2">
+        <v>-0.009500921061753617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06054026534557583</v>
+        <v>-0.06081979438215854</v>
       </c>
       <c r="C3">
-        <v>-0.002999437099683239</v>
+        <v>-0.08645090034003192</v>
       </c>
       <c r="D3">
-        <v>0.02765666746382816</v>
+        <v>0.01342009050360294</v>
       </c>
       <c r="E3">
-        <v>0.2356217564074383</v>
+        <v>-0.07386956217098468</v>
       </c>
       <c r="F3">
-        <v>0.1720187174804268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08386176497376051</v>
+      </c>
+      <c r="G3">
+        <v>0.06270066739083867</v>
+      </c>
+      <c r="H3">
+        <v>-0.01243431073207882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03520261668690351</v>
+        <v>-0.0511461008639258</v>
       </c>
       <c r="C4">
-        <v>-0.0150917572609075</v>
+        <v>-0.05811954640874014</v>
       </c>
       <c r="D4">
-        <v>-0.03084176827478009</v>
+        <v>0.02109154050520315</v>
       </c>
       <c r="E4">
-        <v>0.02426705328749924</v>
+        <v>0.002329900614601903</v>
       </c>
       <c r="F4">
-        <v>0.0481992866299464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01936810418969741</v>
+      </c>
+      <c r="G4">
+        <v>0.0389872262744532</v>
+      </c>
+      <c r="H4">
+        <v>0.02296420623525677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06210567922829924</v>
+        <v>-0.02949734313770262</v>
       </c>
       <c r="C6">
-        <v>-0.003374934443545344</v>
+        <v>-0.05439436487485895</v>
       </c>
       <c r="D6">
-        <v>-0.04251948563751025</v>
+        <v>0.01551651565659824</v>
       </c>
       <c r="E6">
-        <v>0.01773554721127841</v>
+        <v>-0.001213697263685395</v>
       </c>
       <c r="F6">
-        <v>0.03085798733227225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01841551364368773</v>
+      </c>
+      <c r="G6">
+        <v>0.01940851652779419</v>
+      </c>
+      <c r="H6">
+        <v>0.002505722950360748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0271041857000076</v>
+        <v>-0.0139084574475365</v>
       </c>
       <c r="C7">
-        <v>-0.07004179901056014</v>
+        <v>-0.03543766113355113</v>
       </c>
       <c r="D7">
-        <v>-0.002274406111396131</v>
+        <v>0.01235510869311169</v>
       </c>
       <c r="E7">
-        <v>0.008842753115461521</v>
+        <v>0.01744536946259667</v>
       </c>
       <c r="F7">
-        <v>0.008970013337100922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.009532222536614506</v>
+      </c>
+      <c r="G7">
+        <v>0.0709137116589198</v>
+      </c>
+      <c r="H7">
+        <v>-0.01679033969268083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01715176336093134</v>
+        <v>0.004585684405744586</v>
       </c>
       <c r="C8">
-        <v>-0.0103715662523446</v>
+        <v>-0.002116818880269716</v>
       </c>
       <c r="D8">
-        <v>-0.02311621210891421</v>
+        <v>0.001959281571045987</v>
       </c>
       <c r="E8">
-        <v>0.02145425031983614</v>
+        <v>-0.008033884194816023</v>
       </c>
       <c r="F8">
-        <v>0.04738865573004393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02037913404070072</v>
+      </c>
+      <c r="G8">
+        <v>0.02622197764903786</v>
+      </c>
+      <c r="H8">
+        <v>0.01563517467919768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02799049084573654</v>
+        <v>-0.02510894940395893</v>
       </c>
       <c r="C9">
-        <v>-0.01211456452164566</v>
+        <v>-0.04071012616529478</v>
       </c>
       <c r="D9">
-        <v>-0.02453683708029691</v>
+        <v>0.0148278026246329</v>
       </c>
       <c r="E9">
-        <v>0.04453112191840949</v>
+        <v>0.000795719566606675</v>
       </c>
       <c r="F9">
-        <v>0.03679626286732963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02147702008737479</v>
+      </c>
+      <c r="G9">
+        <v>0.02688302781126341</v>
+      </c>
+      <c r="H9">
+        <v>-0.002940853169652832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05247085664431493</v>
+        <v>-0.09563026183087149</v>
       </c>
       <c r="C10">
-        <v>0.01397676973933503</v>
+        <v>0.1788267722046757</v>
       </c>
       <c r="D10">
-        <v>0.1694176397913774</v>
+        <v>-0.0220430624730714</v>
       </c>
       <c r="E10">
-        <v>0.03960797642636049</v>
+        <v>-0.01713287432229631</v>
       </c>
       <c r="F10">
-        <v>-0.006937144865107865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01165351016997548</v>
+      </c>
+      <c r="G10">
+        <v>0.02665578553108482</v>
+      </c>
+      <c r="H10">
+        <v>-0.0309537445346019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02828834192623672</v>
+        <v>-0.03229552869618936</v>
       </c>
       <c r="C11">
-        <v>0.002994391728055998</v>
+        <v>-0.0543121181173142</v>
       </c>
       <c r="D11">
-        <v>-0.04193502468353812</v>
+        <v>0.0005578613879515055</v>
       </c>
       <c r="E11">
-        <v>0.006749908652353889</v>
+        <v>0.007572257321133422</v>
       </c>
       <c r="F11">
-        <v>0.01861032176787435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02698946216564797</v>
+      </c>
+      <c r="G11">
+        <v>0.008036965022166907</v>
+      </c>
+      <c r="H11">
+        <v>0.004552897699876457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03613347482374966</v>
+        <v>-0.03240475676941412</v>
       </c>
       <c r="C12">
-        <v>-0.003102834503653322</v>
+        <v>-0.04799526332592393</v>
       </c>
       <c r="D12">
-        <v>-0.04033955185725672</v>
+        <v>0.004853428054558697</v>
       </c>
       <c r="E12">
-        <v>-0.0117883810953271</v>
+        <v>0.01330878200356258</v>
       </c>
       <c r="F12">
-        <v>0.004406852814383877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.007164640136274159</v>
+      </c>
+      <c r="G12">
+        <v>0.01462222889247083</v>
+      </c>
+      <c r="H12">
+        <v>0.00172608025954303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01636571566021086</v>
+        <v>-0.01018708663844183</v>
       </c>
       <c r="C13">
-        <v>0.002003427595112873</v>
+        <v>-0.02713446657723607</v>
       </c>
       <c r="D13">
-        <v>-0.01577102359160531</v>
+        <v>0.02349584058456664</v>
       </c>
       <c r="E13">
-        <v>0.03874220260980264</v>
+        <v>-0.01623001945667412</v>
       </c>
       <c r="F13">
-        <v>0.04638801867795339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03454724854248786</v>
+      </c>
+      <c r="G13">
+        <v>0.02292640835364513</v>
+      </c>
+      <c r="H13">
+        <v>0.009850425673456184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0142627032270514</v>
+        <v>-0.006046205055569944</v>
       </c>
       <c r="C14">
-        <v>-0.01413426012396899</v>
+        <v>-0.02280626459467337</v>
       </c>
       <c r="D14">
-        <v>-0.008086377344094196</v>
+        <v>0.007852562872012674</v>
       </c>
       <c r="E14">
-        <v>0.01400511091612314</v>
+        <v>0.007821831890577032</v>
       </c>
       <c r="F14">
-        <v>0.04653015492020868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.003545871890458439</v>
+      </c>
+      <c r="G14">
+        <v>0.03334282282391471</v>
+      </c>
+      <c r="H14">
+        <v>0.01191828050074607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02582424972401099</v>
+        <v>-0.02795984097279014</v>
       </c>
       <c r="C16">
-        <v>-0.003033726762446531</v>
+        <v>-0.04110519236697445</v>
       </c>
       <c r="D16">
-        <v>-0.04165835887702878</v>
+        <v>0.0001801517025431252</v>
       </c>
       <c r="E16">
-        <v>0.008451530627682832</v>
+        <v>0.004984452242771419</v>
       </c>
       <c r="F16">
-        <v>0.02084170095273544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01528392804493868</v>
+      </c>
+      <c r="G16">
+        <v>0.01312325417831922</v>
+      </c>
+      <c r="H16">
+        <v>0.004979532148311224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0294396081851029</v>
+        <v>-0.02539089098098386</v>
       </c>
       <c r="C19">
-        <v>-0.0006612270383411013</v>
+        <v>-0.04957231149422502</v>
       </c>
       <c r="D19">
-        <v>-0.03414579667213807</v>
+        <v>0.01391560331153758</v>
       </c>
       <c r="E19">
-        <v>0.03819314326718199</v>
+        <v>-0.0291874921201321</v>
       </c>
       <c r="F19">
-        <v>0.0790639622028131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04447098795228385</v>
+      </c>
+      <c r="G19">
+        <v>0.03573548617410572</v>
+      </c>
+      <c r="H19">
+        <v>0.02336962015319945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001727316654083199</v>
+        <v>-0.00778301562096847</v>
       </c>
       <c r="C20">
-        <v>-0.003736804758398882</v>
+        <v>-0.02796097526359415</v>
       </c>
       <c r="D20">
-        <v>-0.001044233191689295</v>
+        <v>0.01209949465357791</v>
       </c>
       <c r="E20">
-        <v>0.02808599890810575</v>
+        <v>-0.01586739860180471</v>
       </c>
       <c r="F20">
-        <v>0.0288072113947912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01257055267601561</v>
+      </c>
+      <c r="G20">
+        <v>0.02284334075743577</v>
+      </c>
+      <c r="H20">
+        <v>0.008351707885888821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03820348183282443</v>
+        <v>-0.009089945244139962</v>
       </c>
       <c r="C21">
-        <v>-0.02085625891587281</v>
+        <v>-0.03018979757588498</v>
       </c>
       <c r="D21">
-        <v>-0.01438690053140836</v>
+        <v>0.01527843057429644</v>
       </c>
       <c r="E21">
-        <v>0.01852731127179971</v>
+        <v>-0.02074167825488575</v>
       </c>
       <c r="F21">
-        <v>0.03638066148934763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02503347306602708</v>
+      </c>
+      <c r="G21">
+        <v>0.04479722143125909</v>
+      </c>
+      <c r="H21">
+        <v>0.00323080197294411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02486312284454454</v>
+        <v>-0.02350844920191702</v>
       </c>
       <c r="C24">
-        <v>-0.0007736337648336573</v>
+        <v>-0.04499967310788118</v>
       </c>
       <c r="D24">
-        <v>-0.0345672861933209</v>
+        <v>0.005418660038470015</v>
       </c>
       <c r="E24">
-        <v>0.006949332330296289</v>
+        <v>0.009956135136234957</v>
       </c>
       <c r="F24">
-        <v>0.01535232398532557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02163851253869488</v>
+      </c>
+      <c r="G24">
+        <v>0.009695426629922031</v>
+      </c>
+      <c r="H24">
+        <v>-0.002224938072910488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03744589168977053</v>
+        <v>-0.04031956244763264</v>
       </c>
       <c r="C25">
-        <v>0.001058385758017986</v>
+        <v>-0.05340535295853916</v>
       </c>
       <c r="D25">
-        <v>-0.03201057807104125</v>
+        <v>0.009291559916319079</v>
       </c>
       <c r="E25">
-        <v>0.02044676172373092</v>
+        <v>0.01696550342631619</v>
       </c>
       <c r="F25">
-        <v>0.02541819746208713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01868274089955593</v>
+      </c>
+      <c r="G25">
+        <v>0.01740058821398465</v>
+      </c>
+      <c r="H25">
+        <v>0.006813168760370579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.002781126699793844</v>
+        <v>-0.00203885318953498</v>
       </c>
       <c r="C26">
-        <v>-0.009546693517693099</v>
+        <v>-0.002962344027232628</v>
       </c>
       <c r="D26">
-        <v>-0.006562470904072315</v>
+        <v>0.02317524742631301</v>
       </c>
       <c r="E26">
-        <v>0.03209761467486392</v>
+        <v>-0.00229721062532714</v>
       </c>
       <c r="F26">
-        <v>0.01357340152111364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00746380625702116</v>
+      </c>
+      <c r="G26">
+        <v>0.01939755407998523</v>
+      </c>
+      <c r="H26">
+        <v>0.002563847937158858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.000789621763799311</v>
+        <v>-0.0003785369159130529</v>
       </c>
       <c r="C27">
-        <v>-0.0008123345187182902</v>
+        <v>0.0003896120143423287</v>
       </c>
       <c r="D27">
-        <v>0.002446505672873441</v>
+        <v>-0.0004169195305757077</v>
       </c>
       <c r="E27">
-        <v>-0.005032059666749092</v>
+        <v>-0.0002568187088280757</v>
       </c>
       <c r="F27">
-        <v>0.01239740629085898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0009761159952225456</v>
+      </c>
+      <c r="G27">
+        <v>0.002798806892586276</v>
+      </c>
+      <c r="H27">
+        <v>0.005568722128718877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08580553116761498</v>
+        <v>-0.1275337911202803</v>
       </c>
       <c r="C28">
-        <v>0.02162001744972317</v>
+        <v>0.2163358285974804</v>
       </c>
       <c r="D28">
-        <v>0.2424925054769056</v>
+        <v>-0.01437381802041329</v>
       </c>
       <c r="E28">
-        <v>0.04941135641589394</v>
+        <v>-0.009833309594318815</v>
       </c>
       <c r="F28">
-        <v>-0.02068168829823145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01279014490875643</v>
+      </c>
+      <c r="G28">
+        <v>0.04168819553106377</v>
+      </c>
+      <c r="H28">
+        <v>-0.02971271629873429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01385414242359748</v>
+        <v>-0.01041491408478134</v>
       </c>
       <c r="C29">
-        <v>-0.01072234334976354</v>
+        <v>-0.01887272065389227</v>
       </c>
       <c r="D29">
-        <v>-0.007769216885889842</v>
+        <v>0.006682385272367123</v>
       </c>
       <c r="E29">
-        <v>0.01158665349377304</v>
+        <v>0.00666607424931747</v>
       </c>
       <c r="F29">
-        <v>0.0502361840405536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.001228812375787134</v>
+      </c>
+      <c r="G29">
+        <v>0.02818680115497014</v>
+      </c>
+      <c r="H29">
+        <v>0.01801119860795318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04130912272162673</v>
+        <v>-0.03413502321555566</v>
       </c>
       <c r="C30">
-        <v>0.04878421227915946</v>
+        <v>-0.07409471409464585</v>
       </c>
       <c r="D30">
-        <v>-0.06365435733132321</v>
+        <v>0.02673577863017459</v>
       </c>
       <c r="E30">
-        <v>0.05021941543622088</v>
+        <v>-0.01844219324313689</v>
       </c>
       <c r="F30">
-        <v>0.06642761477413353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04859789846812674</v>
+      </c>
+      <c r="G30">
+        <v>-0.008913387685290276</v>
+      </c>
+      <c r="H30">
+        <v>0.02647214945773474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04929015781802578</v>
+        <v>-0.0403080689277819</v>
       </c>
       <c r="C31">
-        <v>-0.01020443412663812</v>
+        <v>-0.02315107849309864</v>
       </c>
       <c r="D31">
-        <v>-0.01573314874185152</v>
+        <v>0.001403839985845867</v>
       </c>
       <c r="E31">
-        <v>-0.004686371968147147</v>
+        <v>0.01706713348319255</v>
       </c>
       <c r="F31">
-        <v>0.02980836536774352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02829870035568394</v>
+      </c>
+      <c r="G31">
+        <v>0.02318565257211782</v>
+      </c>
+      <c r="H31">
+        <v>0.003568772097961984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001082421169553828</v>
+        <v>-0.001606239440644143</v>
       </c>
       <c r="C32">
-        <v>-0.02923192560238602</v>
+        <v>-0.02850393891457235</v>
       </c>
       <c r="D32">
-        <v>-0.02578530517932683</v>
+        <v>-0.005639778387129212</v>
       </c>
       <c r="E32">
-        <v>0.003137765583076177</v>
+        <v>-0.01185459181918104</v>
       </c>
       <c r="F32">
-        <v>0.06361028009755001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07947930257091003</v>
+      </c>
+      <c r="G32">
+        <v>0.0511716741526867</v>
+      </c>
+      <c r="H32">
+        <v>0.03895400094171018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.031536456085775</v>
+        <v>-0.02575859729726409</v>
       </c>
       <c r="C33">
-        <v>0.02103300609088926</v>
+        <v>-0.04895202578463546</v>
       </c>
       <c r="D33">
-        <v>-0.03155491198201406</v>
+        <v>0.01319857190972008</v>
       </c>
       <c r="E33">
-        <v>0.0410851709623002</v>
+        <v>-0.01324791612224545</v>
       </c>
       <c r="F33">
-        <v>0.03028492507920373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02587774887151967</v>
+      </c>
+      <c r="G33">
+        <v>0.01063459960008048</v>
+      </c>
+      <c r="H33">
+        <v>-0.00751269109149541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0273962264796436</v>
+        <v>-0.04149274785864557</v>
       </c>
       <c r="C34">
-        <v>-0.01084581125925406</v>
+        <v>-0.05522538669614931</v>
       </c>
       <c r="D34">
-        <v>-0.0428924028765103</v>
+        <v>-0.006755252327021302</v>
       </c>
       <c r="E34">
-        <v>0.007278309934375189</v>
+        <v>0.01745285890008911</v>
       </c>
       <c r="F34">
-        <v>0.02548792274914274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0242730503430114</v>
+      </c>
+      <c r="G34">
+        <v>0.02194786262468963</v>
+      </c>
+      <c r="H34">
+        <v>0.00267805930512568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01175494196936158</v>
+        <v>-0.01030431539282983</v>
       </c>
       <c r="C36">
-        <v>-0.005326284204357963</v>
+        <v>-0.001819197784624285</v>
       </c>
       <c r="D36">
-        <v>-0.0002096234851288774</v>
+        <v>0.01006334272010365</v>
       </c>
       <c r="E36">
-        <v>0.0108669000973752</v>
+        <v>0.002532065988482691</v>
       </c>
       <c r="F36">
-        <v>0.02218093274938647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0006802384196468631</v>
+      </c>
+      <c r="G36">
+        <v>0.01373092935285644</v>
+      </c>
+      <c r="H36">
+        <v>0.0004869261666130667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01938326378557584</v>
+        <v>-0.02675449712856887</v>
       </c>
       <c r="C38">
-        <v>0.00361227756225368</v>
+        <v>-0.01802628851700901</v>
       </c>
       <c r="D38">
-        <v>-0.00564972863282428</v>
+        <v>-0.008652953517661989</v>
       </c>
       <c r="E38">
-        <v>0.04058049417584605</v>
+        <v>0.003123326891053552</v>
       </c>
       <c r="F38">
-        <v>0.03394882755499413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01065469680258078</v>
+      </c>
+      <c r="G38">
+        <v>0.0184114156460917</v>
+      </c>
+      <c r="H38">
+        <v>0.002711168181684276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02010890460824986</v>
+        <v>-0.02287901024034887</v>
       </c>
       <c r="C39">
-        <v>-0.009275099550296862</v>
+        <v>-0.0827880084201283</v>
       </c>
       <c r="D39">
-        <v>-0.06704166158306918</v>
+        <v>0.01152338539563629</v>
       </c>
       <c r="E39">
-        <v>0.03037007825244519</v>
+        <v>-0.004518783010899707</v>
       </c>
       <c r="F39">
-        <v>0.04750143056957161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0458857820284569</v>
+      </c>
+      <c r="G39">
+        <v>0.01285271873307778</v>
+      </c>
+      <c r="H39">
+        <v>-0.003473854334033907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02653537530460038</v>
+        <v>-0.01817710557156652</v>
       </c>
       <c r="C40">
-        <v>0.001044292311216589</v>
+        <v>-0.0269968462973606</v>
       </c>
       <c r="D40">
-        <v>-0.04264153556574465</v>
+        <v>0.01189233227614211</v>
       </c>
       <c r="E40">
-        <v>0.02391209181822422</v>
+        <v>-0.006967123547814228</v>
       </c>
       <c r="F40">
-        <v>0.007298107538992129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02678381518823725</v>
+      </c>
+      <c r="G40">
+        <v>0.01083383994832413</v>
+      </c>
+      <c r="H40">
+        <v>-0.00536681344424688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01015946860914245</v>
+        <v>-0.01176321300490706</v>
       </c>
       <c r="C41">
-        <v>0.001590293209615667</v>
+        <v>0.006480117746810597</v>
       </c>
       <c r="D41">
-        <v>0.01111872484420107</v>
+        <v>0.002379663670220925</v>
       </c>
       <c r="E41">
-        <v>0.008329955944674214</v>
+        <v>0.008567986139036966</v>
       </c>
       <c r="F41">
-        <v>0.004141004731078899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0006065947461898313</v>
+      </c>
+      <c r="G41">
+        <v>0.006810867151120864</v>
+      </c>
+      <c r="H41">
+        <v>-0.0008079784628415468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2003612172885273</v>
+        <v>-0.04455804383571901</v>
       </c>
       <c r="C42">
-        <v>0.1493423288812225</v>
+        <v>-0.08139549646956767</v>
       </c>
       <c r="D42">
-        <v>-0.1579892711315934</v>
+        <v>0.1148634012967746</v>
       </c>
       <c r="E42">
-        <v>0.4037790635041762</v>
+        <v>-0.09427332923580815</v>
       </c>
       <c r="F42">
-        <v>-0.810726003051084</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1800078580758733</v>
+      </c>
+      <c r="G42">
+        <v>-0.3845484996878305</v>
+      </c>
+      <c r="H42">
+        <v>-0.8671426687662233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01470475390758505</v>
+        <v>-0.02575130769965284</v>
       </c>
       <c r="C43">
-        <v>0.004530224354548066</v>
+        <v>-0.002055336803922858</v>
       </c>
       <c r="D43">
-        <v>0.01059100792886115</v>
+        <v>0.00206294763086818</v>
       </c>
       <c r="E43">
-        <v>0.01215987172558773</v>
+        <v>0.006404651799956178</v>
       </c>
       <c r="F43">
-        <v>0.01163121161896124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003518394389447459</v>
+      </c>
+      <c r="G43">
+        <v>0.008667609648127546</v>
+      </c>
+      <c r="H43">
+        <v>0.0009820047378559017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.007114159148383622</v>
+        <v>-0.01242387467070948</v>
       </c>
       <c r="C44">
-        <v>-0.01162939860460062</v>
+        <v>-0.04766952419387324</v>
       </c>
       <c r="D44">
-        <v>-0.01803712963452663</v>
+        <v>0.006470597726830949</v>
       </c>
       <c r="E44">
-        <v>0.05848907757771667</v>
+        <v>-0.01334168145880213</v>
       </c>
       <c r="F44">
-        <v>0.04895559533124533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02864039161536366</v>
+      </c>
+      <c r="G44">
+        <v>0.02692072542427289</v>
+      </c>
+      <c r="H44">
+        <v>-0.01384715550015017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01289639374034597</v>
+        <v>-0.00109654129054176</v>
       </c>
       <c r="C46">
-        <v>-0.002634405062681635</v>
+        <v>-0.01346658053782524</v>
       </c>
       <c r="D46">
-        <v>-0.03263252185969869</v>
+        <v>0.01080042209933634</v>
       </c>
       <c r="E46">
-        <v>0.02788423737158839</v>
+        <v>0.007898058857413646</v>
       </c>
       <c r="F46">
-        <v>0.07243165868843272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006329459721849726</v>
+      </c>
+      <c r="G46">
+        <v>0.02007526024105508</v>
+      </c>
+      <c r="H46">
+        <v>0.01844231771467607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07490269644371761</v>
+        <v>-0.06668662750180758</v>
       </c>
       <c r="C47">
-        <v>0.006238233554839665</v>
+        <v>-0.05636463403771597</v>
       </c>
       <c r="D47">
-        <v>-0.02040006553766729</v>
+        <v>-0.006170799241263627</v>
       </c>
       <c r="E47">
-        <v>-0.03266045765377753</v>
+        <v>0.01927837202455096</v>
       </c>
       <c r="F47">
-        <v>0.004499635263699234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.05922638187507635</v>
+      </c>
+      <c r="G47">
+        <v>0.01574441632768772</v>
+      </c>
+      <c r="H47">
+        <v>0.008082126584014318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02229895354029867</v>
+        <v>-0.01395835326823208</v>
       </c>
       <c r="C48">
-        <v>-0.003896404772817095</v>
+        <v>-0.008419963615274584</v>
       </c>
       <c r="D48">
-        <v>-0.008008138661150825</v>
+        <v>0.0002418955007572068</v>
       </c>
       <c r="E48">
-        <v>0.01303485438782159</v>
+        <v>0.008119558800607477</v>
       </c>
       <c r="F48">
-        <v>0.02004469273991575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01473999938595407</v>
+      </c>
+      <c r="G48">
+        <v>0.01603977022963371</v>
+      </c>
+      <c r="H48">
+        <v>0.002568060785515869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08112287611717316</v>
+        <v>-0.07234033257143302</v>
       </c>
       <c r="C50">
-        <v>-0.02240164417084019</v>
+        <v>-0.06173889535031952</v>
       </c>
       <c r="D50">
-        <v>-0.04141555161227856</v>
+        <v>-0.004941842395523607</v>
       </c>
       <c r="E50">
-        <v>-0.001442175214508556</v>
+        <v>0.01947413601457112</v>
       </c>
       <c r="F50">
-        <v>0.01896722743811242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05646385735951852</v>
+      </c>
+      <c r="G50">
+        <v>0.04037059100041739</v>
+      </c>
+      <c r="H50">
+        <v>0.002064906372786978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009978390615008331</v>
+        <v>-0.01215984777040417</v>
       </c>
       <c r="C51">
-        <v>-0.006848028692293827</v>
+        <v>-0.02401604660165609</v>
       </c>
       <c r="D51">
-        <v>0.01681578700975071</v>
+        <v>0.008207190179233737</v>
       </c>
       <c r="E51">
-        <v>0.05672833911023056</v>
+        <v>-0.001593613004492935</v>
       </c>
       <c r="F51">
-        <v>0.0541596539876417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03697922219368027</v>
+      </c>
+      <c r="G51">
+        <v>0.03156227770925873</v>
+      </c>
+      <c r="H51">
+        <v>-0.006168870694819176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1048295340553584</v>
+        <v>-0.09116213581248868</v>
       </c>
       <c r="C53">
-        <v>-0.005247483743368656</v>
+        <v>-0.08081592933634922</v>
       </c>
       <c r="D53">
-        <v>-0.05007834322341827</v>
+        <v>-0.006438566178973763</v>
       </c>
       <c r="E53">
-        <v>-0.05466655638865647</v>
+        <v>0.0419729782882039</v>
       </c>
       <c r="F53">
-        <v>0.002843670901059802</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06516116453211819</v>
+      </c>
+      <c r="G53">
+        <v>0.01714430876487943</v>
+      </c>
+      <c r="H53">
+        <v>-0.001859583955878743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02645368329637598</v>
+        <v>-0.02756104865629267</v>
       </c>
       <c r="C54">
-        <v>-0.007282225146703139</v>
+        <v>-0.001522170738961782</v>
       </c>
       <c r="D54">
-        <v>-0.0002441713463762517</v>
+        <v>-0.005574175859338886</v>
       </c>
       <c r="E54">
-        <v>-0.005574497221885968</v>
+        <v>0.002314248236768779</v>
       </c>
       <c r="F54">
-        <v>0.03850119558669305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002316512689398334</v>
+      </c>
+      <c r="G54">
+        <v>0.02522454153066835</v>
+      </c>
+      <c r="H54">
+        <v>0.01283472050998746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07781307430221389</v>
+        <v>-0.06717807887103229</v>
       </c>
       <c r="C55">
-        <v>0.0003254761173975319</v>
+        <v>-0.06966303121107045</v>
       </c>
       <c r="D55">
-        <v>-0.06416971337304143</v>
+        <v>-0.0054617601118954</v>
       </c>
       <c r="E55">
-        <v>-0.03414799786584536</v>
+        <v>0.0316257034617982</v>
       </c>
       <c r="F55">
-        <v>0.0004681327569954146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06033727625106447</v>
+      </c>
+      <c r="G55">
+        <v>0.006573551476850801</v>
+      </c>
+      <c r="H55">
+        <v>0.004778415110702539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1465032645276927</v>
+        <v>-0.136307294979045</v>
       </c>
       <c r="C56">
-        <v>0.00460722467930451</v>
+        <v>-0.1079259180743683</v>
       </c>
       <c r="D56">
-        <v>-0.06986928268492247</v>
+        <v>-0.01478937891540492</v>
       </c>
       <c r="E56">
-        <v>-0.08419289620085554</v>
+        <v>0.04338384272209203</v>
       </c>
       <c r="F56">
-        <v>-0.01911053783927279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1036883479911018</v>
+      </c>
+      <c r="G56">
+        <v>-0.002405810006984537</v>
+      </c>
+      <c r="H56">
+        <v>0.01027702956829178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03658279847127018</v>
+        <v>-0.01478525605708824</v>
       </c>
       <c r="C57">
-        <v>0.009563279038500683</v>
+        <v>-0.01308468112571386</v>
       </c>
       <c r="D57">
-        <v>-0.01394302624819065</v>
+        <v>0.02386171313470311</v>
       </c>
       <c r="E57">
-        <v>0.0513583055797653</v>
+        <v>-0.03298535235156738</v>
       </c>
       <c r="F57">
-        <v>0.01565269710820804</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02197708119143195</v>
+      </c>
+      <c r="G57">
+        <v>0.02327247750768782</v>
+      </c>
+      <c r="H57">
+        <v>-0.004427836090369616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1749417391346541</v>
+        <v>-0.06791425359424497</v>
       </c>
       <c r="C58">
-        <v>0.1336637740981522</v>
+        <v>-0.08987018702291481</v>
       </c>
       <c r="D58">
-        <v>-0.1545688402272337</v>
+        <v>0.02159890916521306</v>
       </c>
       <c r="E58">
-        <v>0.5634712854070313</v>
+        <v>-0.9484522676891335</v>
       </c>
       <c r="F58">
-        <v>0.3834239488369014</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.195943136197128</v>
+      </c>
+      <c r="G58">
+        <v>0.09120911036861913</v>
+      </c>
+      <c r="H58">
+        <v>0.110086954358612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08777000092018437</v>
+        <v>-0.1623658995559223</v>
       </c>
       <c r="C59">
-        <v>0.04100063035249212</v>
+        <v>0.2063336245265577</v>
       </c>
       <c r="D59">
-        <v>0.198746498842115</v>
+        <v>-0.02188350035241518</v>
       </c>
       <c r="E59">
-        <v>0.05738428114104173</v>
+        <v>-0.01508717584983425</v>
       </c>
       <c r="F59">
-        <v>0.02224541424066603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01183449897667722</v>
+      </c>
+      <c r="G59">
+        <v>0.01815065364947385</v>
+      </c>
+      <c r="H59">
+        <v>-0.0054697590933799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1959931902186819</v>
+        <v>-0.2941159519012994</v>
       </c>
       <c r="C60">
-        <v>0.0473854171306462</v>
+        <v>-0.08529223240035931</v>
       </c>
       <c r="D60">
-        <v>0.02140869820273516</v>
+        <v>0.001235118022532069</v>
       </c>
       <c r="E60">
-        <v>0.1284947253293773</v>
+        <v>-0.008134401545979931</v>
       </c>
       <c r="F60">
-        <v>0.04292112787477531</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3838173627318397</v>
+      </c>
+      <c r="G60">
+        <v>-0.05137611268865801</v>
+      </c>
+      <c r="H60">
+        <v>0.005342997544470172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03036251880393316</v>
+        <v>-0.02709389282071728</v>
       </c>
       <c r="C61">
-        <v>-0.003401859987047573</v>
+        <v>-0.0646570668469377</v>
       </c>
       <c r="D61">
-        <v>-0.0535663368312237</v>
+        <v>0.004518403672494049</v>
       </c>
       <c r="E61">
-        <v>0.01599537575729255</v>
+        <v>0.0008963945986701118</v>
       </c>
       <c r="F61">
-        <v>0.02951567503287355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03126211467585015</v>
+      </c>
+      <c r="G61">
+        <v>0.01643014740526669</v>
+      </c>
+      <c r="H61">
+        <v>0.005706284863474189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01617675832951208</v>
+        <v>-0.01248660244631823</v>
       </c>
       <c r="C63">
-        <v>-0.006810225691090267</v>
+        <v>-0.03050016418403436</v>
       </c>
       <c r="D63">
-        <v>-0.0239027179696009</v>
+        <v>0.007322041889967271</v>
       </c>
       <c r="E63">
-        <v>-0.0004525555487095894</v>
+        <v>0.01578120651981932</v>
       </c>
       <c r="F63">
-        <v>0.016985506296789</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.003803911261052483</v>
+      </c>
+      <c r="G63">
+        <v>0.02138674567382521</v>
+      </c>
+      <c r="H63">
+        <v>0.009817347367699659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04791836789135889</v>
+        <v>-0.04502695722717152</v>
       </c>
       <c r="C64">
-        <v>-0.0008684677634323311</v>
+        <v>-0.03714317393662236</v>
       </c>
       <c r="D64">
-        <v>-0.03126317794068662</v>
+        <v>0.003391020423110611</v>
       </c>
       <c r="E64">
-        <v>0.007985248639032091</v>
+        <v>0.01724251940861433</v>
       </c>
       <c r="F64">
-        <v>0.02338588468539699</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01635749752784583</v>
+      </c>
+      <c r="G64">
+        <v>0.008112394396696983</v>
+      </c>
+      <c r="H64">
+        <v>-0.02008841089054338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06906490482091716</v>
+        <v>-0.07579197965820177</v>
       </c>
       <c r="C65">
-        <v>-0.00341903293261755</v>
+        <v>-0.07445754160348267</v>
       </c>
       <c r="D65">
-        <v>-0.04510105381324375</v>
+        <v>0.0143063803560866</v>
       </c>
       <c r="E65">
-        <v>0.0120327519419096</v>
+        <v>0.003943764708680142</v>
       </c>
       <c r="F65">
-        <v>0.02842848548166642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04508061767115561</v>
+      </c>
+      <c r="G65">
+        <v>0.01164014785902274</v>
+      </c>
+      <c r="H65">
+        <v>0.01064343042847174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04338124178276768</v>
+        <v>-0.04346076438355446</v>
       </c>
       <c r="C66">
-        <v>0.009147981886103777</v>
+        <v>-0.1215817266109184</v>
       </c>
       <c r="D66">
-        <v>-0.07721058433495118</v>
+        <v>0.0106616553954003</v>
       </c>
       <c r="E66">
-        <v>0.002428428059716335</v>
+        <v>-0.004965214757506947</v>
       </c>
       <c r="F66">
-        <v>0.07143139676297769</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05493522349947937</v>
+      </c>
+      <c r="G66">
+        <v>0.008457383083457073</v>
+      </c>
+      <c r="H66">
+        <v>0.02418987423761984</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03691795547545925</v>
+        <v>-0.05223142196753969</v>
       </c>
       <c r="C67">
-        <v>0.008304022123434087</v>
+        <v>-0.0243733669301625</v>
       </c>
       <c r="D67">
-        <v>-0.0008164659059629465</v>
+        <v>-0.007468284887554402</v>
       </c>
       <c r="E67">
-        <v>0.02005764504096857</v>
+        <v>0.008353507188028408</v>
       </c>
       <c r="F67">
-        <v>0.02797140122036853</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.008881132069168155</v>
+      </c>
+      <c r="G67">
+        <v>0.01880707579072111</v>
+      </c>
+      <c r="H67">
+        <v>0.008655902279719997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08007730901037291</v>
+        <v>-0.1440081704773267</v>
       </c>
       <c r="C68">
-        <v>0.03984540719724607</v>
+        <v>0.2520672725640526</v>
       </c>
       <c r="D68">
-        <v>0.2226781077308704</v>
+        <v>-0.003568175818682275</v>
       </c>
       <c r="E68">
-        <v>0.03098897102813114</v>
+        <v>-0.01585722503715471</v>
       </c>
       <c r="F68">
-        <v>-0.005875073636575094</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02327070740359242</v>
+      </c>
+      <c r="G68">
+        <v>0.01635391356210902</v>
+      </c>
+      <c r="H68">
+        <v>-0.02078053805698033</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05616490138337701</v>
+        <v>-0.06939856311981954</v>
       </c>
       <c r="C69">
-        <v>0.004776197741397958</v>
+        <v>-0.05515101733791303</v>
       </c>
       <c r="D69">
-        <v>-0.03048704999760911</v>
+        <v>-0.01084379831498275</v>
       </c>
       <c r="E69">
-        <v>-0.0247300629846048</v>
+        <v>0.03459183207905521</v>
       </c>
       <c r="F69">
-        <v>0.02128495184150044</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0332466414537007</v>
+      </c>
+      <c r="G69">
+        <v>0.01190016662854528</v>
+      </c>
+      <c r="H69">
+        <v>0.01859255649786261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07193293865548143</v>
+        <v>-0.1375320028287814</v>
       </c>
       <c r="C71">
-        <v>0.02616280112819282</v>
+        <v>0.2121077337909184</v>
       </c>
       <c r="D71">
-        <v>0.2200589969327163</v>
+        <v>-0.01112409270630085</v>
       </c>
       <c r="E71">
-        <v>0.06036198545212462</v>
+        <v>-0.02332347381732684</v>
       </c>
       <c r="F71">
-        <v>-0.03842727705032559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02731314456068858</v>
+      </c>
+      <c r="G71">
+        <v>0.02458513377801052</v>
+      </c>
+      <c r="H71">
+        <v>-0.03805793944437536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1266300917001411</v>
+        <v>-0.07892512391187492</v>
       </c>
       <c r="C72">
-        <v>0.003823269750040518</v>
+        <v>-0.08646162641589743</v>
       </c>
       <c r="D72">
-        <v>-0.1163997774231047</v>
+        <v>-0.01056058775010988</v>
       </c>
       <c r="E72">
-        <v>0.03744592559792981</v>
+        <v>0.01853251804789132</v>
       </c>
       <c r="F72">
-        <v>0.1303044076616887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04123124576561455</v>
+      </c>
+      <c r="G72">
+        <v>0.00170340323375458</v>
+      </c>
+      <c r="H72">
+        <v>0.02727465070362261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2422453270634722</v>
+        <v>-0.3868019125184242</v>
       </c>
       <c r="C73">
-        <v>0.1075372624994262</v>
+        <v>-0.1314116943422234</v>
       </c>
       <c r="D73">
-        <v>-0.006472936286538175</v>
+        <v>0.008345860643332434</v>
       </c>
       <c r="E73">
-        <v>0.1962550209300915</v>
+        <v>-0.06644446087958147</v>
       </c>
       <c r="F73">
-        <v>0.02848881035593772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5365294828785427</v>
+      </c>
+      <c r="G73">
+        <v>-0.1022034305109362</v>
+      </c>
+      <c r="H73">
+        <v>-0.05287523758303984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1354463039242599</v>
+        <v>-0.1105686345742474</v>
       </c>
       <c r="C74">
-        <v>0.01112955726980124</v>
+        <v>-0.118377938514014</v>
       </c>
       <c r="D74">
-        <v>-0.06948772876214993</v>
+        <v>-0.01145921715445055</v>
       </c>
       <c r="E74">
-        <v>-0.08283913482750567</v>
+        <v>0.04264987813752642</v>
       </c>
       <c r="F74">
-        <v>-0.002371803760479885</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07619399314742502</v>
+      </c>
+      <c r="G74">
+        <v>0.0115402199826943</v>
+      </c>
+      <c r="H74">
+        <v>0.005231950670776554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2716565371016658</v>
+        <v>-0.2467697646124776</v>
       </c>
       <c r="C75">
-        <v>0.03160398170609491</v>
+        <v>-0.1658353983443593</v>
       </c>
       <c r="D75">
-        <v>-0.09809700199526067</v>
+        <v>-0.03142349904460714</v>
       </c>
       <c r="E75">
-        <v>-0.1603444333952342</v>
+        <v>0.0606110825942706</v>
       </c>
       <c r="F75">
-        <v>0.01821786382869824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2105469414788259</v>
+      </c>
+      <c r="G75">
+        <v>-0.01810916440008783</v>
+      </c>
+      <c r="H75">
+        <v>0.03171664657787886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.267304985008242</v>
+        <v>-0.1505452881327692</v>
       </c>
       <c r="C76">
-        <v>0.01085653468360761</v>
+        <v>-0.1365458552010204</v>
       </c>
       <c r="D76">
-        <v>-0.1117834679845677</v>
+        <v>-0.02457726198500838</v>
       </c>
       <c r="E76">
-        <v>-0.2159890222780646</v>
+        <v>0.06944660530868141</v>
       </c>
       <c r="F76">
-        <v>-0.02281775150290655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1527108226255193</v>
+      </c>
+      <c r="G76">
+        <v>0.004902903180576819</v>
+      </c>
+      <c r="H76">
+        <v>0.01112985600415503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07050922832323225</v>
+        <v>-0.04952959501584333</v>
       </c>
       <c r="C77">
-        <v>0.01181746104707743</v>
+        <v>-0.06231885570156954</v>
       </c>
       <c r="D77">
-        <v>-0.06783266581300686</v>
+        <v>0.01321979138878852</v>
       </c>
       <c r="E77">
-        <v>0.1079931676045007</v>
+        <v>-0.03524383232947401</v>
       </c>
       <c r="F77">
-        <v>-0.01858323869085763</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>7.018204954467613e-05</v>
+      </c>
+      <c r="G77">
+        <v>0.02093180261371927</v>
+      </c>
+      <c r="H77">
+        <v>-0.02877844146634539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03156662919468277</v>
+        <v>-0.04005788076683475</v>
       </c>
       <c r="C78">
-        <v>-0.007040691916252137</v>
+        <v>-0.05516408540103823</v>
       </c>
       <c r="D78">
-        <v>-0.05148845093901289</v>
+        <v>0.004872790597739722</v>
       </c>
       <c r="E78">
-        <v>0.05139048939776934</v>
+        <v>-0.01518224265007237</v>
       </c>
       <c r="F78">
-        <v>0.05421379955042068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04834642308032047</v>
+      </c>
+      <c r="G78">
+        <v>0.02280411867547955</v>
+      </c>
+      <c r="H78">
+        <v>0.004985688228362162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2426227386888992</v>
+        <v>-0.06363390862804066</v>
       </c>
       <c r="C80">
-        <v>-0.9387673707823009</v>
+        <v>-0.08453528193701962</v>
       </c>
       <c r="D80">
-        <v>0.09271502764730805</v>
+        <v>0.01208075821110891</v>
       </c>
       <c r="E80">
-        <v>0.1359008450399333</v>
+        <v>0.06943262578593111</v>
       </c>
       <c r="F80">
-        <v>-0.06252880378184039</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01528288716012915</v>
+      </c>
+      <c r="G80">
+        <v>0.8768780753868701</v>
+      </c>
+      <c r="H80">
+        <v>-0.3815263369290527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2155247820885003</v>
+        <v>-0.1502434282649667</v>
       </c>
       <c r="C81">
-        <v>0.01501464224205268</v>
+        <v>-0.1023259244783091</v>
       </c>
       <c r="D81">
-        <v>-0.07286772396650178</v>
+        <v>-0.01902764269846868</v>
       </c>
       <c r="E81">
-        <v>-0.1310022162700407</v>
+        <v>0.043124967646624</v>
       </c>
       <c r="F81">
-        <v>0.04568096921914824</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1436161847924898</v>
+      </c>
+      <c r="G81">
+        <v>0.01223274508465138</v>
+      </c>
+      <c r="H81">
+        <v>0.01475572059029501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03404116618014816</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02464183326598976</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002631295007071862</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02324794626455948</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002740904056134599</v>
+      </c>
+      <c r="G82">
+        <v>0.002529814689289431</v>
+      </c>
+      <c r="H82">
+        <v>0.01574043328475038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03331331657555412</v>
+        <v>-0.02608801101742942</v>
       </c>
       <c r="C83">
-        <v>0.007469202579653661</v>
+        <v>-0.01696947883627446</v>
       </c>
       <c r="D83">
-        <v>-0.003577865867971044</v>
+        <v>0.004264207159234189</v>
       </c>
       <c r="E83">
-        <v>0.03524124678936819</v>
+        <v>-0.0205622494066076</v>
       </c>
       <c r="F83">
-        <v>0.03842850235644001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0255285996486424</v>
+      </c>
+      <c r="G83">
+        <v>0.02678619977232805</v>
+      </c>
+      <c r="H83">
+        <v>0.008401983605120769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2549718615847714</v>
+        <v>-0.2366088078787655</v>
       </c>
       <c r="C85">
-        <v>0.03964099862060998</v>
+        <v>-0.1815405003447414</v>
       </c>
       <c r="D85">
-        <v>-0.1151763076552368</v>
+        <v>-0.02020842236830133</v>
       </c>
       <c r="E85">
-        <v>-0.1909987584761992</v>
+        <v>0.09841853084811691</v>
       </c>
       <c r="F85">
-        <v>0.006827962085405529</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2016332530196433</v>
+      </c>
+      <c r="G85">
+        <v>-0.05515713662545624</v>
+      </c>
+      <c r="H85">
+        <v>0.04630637105653136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006731557093928981</v>
+        <v>-0.005412676648033739</v>
       </c>
       <c r="C86">
-        <v>-0.008908333882719723</v>
+        <v>-0.02522295752356821</v>
       </c>
       <c r="D86">
-        <v>-0.03708475605290655</v>
+        <v>0.009505070715422451</v>
       </c>
       <c r="E86">
-        <v>0.04586187558336929</v>
+        <v>-0.0122897248335135</v>
       </c>
       <c r="F86">
-        <v>0.05280815123013318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02628977762356809</v>
+      </c>
+      <c r="G86">
+        <v>0.04139943123347262</v>
+      </c>
+      <c r="H86">
+        <v>-0.02928902334381191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02608485064743574</v>
+        <v>-0.01299763362307442</v>
       </c>
       <c r="C87">
-        <v>-0.006325884293200442</v>
+        <v>-0.02309429657152601</v>
       </c>
       <c r="D87">
-        <v>-0.02831691597556017</v>
+        <v>0.01064546360524585</v>
       </c>
       <c r="E87">
-        <v>0.08952029221819555</v>
+        <v>-0.07254511444494935</v>
       </c>
       <c r="F87">
-        <v>0.06728252430205946</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06556041462930658</v>
+      </c>
+      <c r="G87">
+        <v>0.03368686060109088</v>
+      </c>
+      <c r="H87">
+        <v>-0.01146662776191656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04375144592859241</v>
+        <v>-0.07726111277946367</v>
       </c>
       <c r="C88">
-        <v>0.008484797895846429</v>
+        <v>-0.04267933166510221</v>
       </c>
       <c r="D88">
-        <v>0.003789505981692557</v>
+        <v>0.01888551160028397</v>
       </c>
       <c r="E88">
-        <v>-0.008341267785042586</v>
+        <v>0.01882160151578556</v>
       </c>
       <c r="F88">
-        <v>0.0001574818843613506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.008421571463195821</v>
+      </c>
+      <c r="G88">
+        <v>0.01802116759129718</v>
+      </c>
+      <c r="H88">
+        <v>0.02589437165257586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1416638640927006</v>
+        <v>-0.2403253477515919</v>
       </c>
       <c r="C89">
-        <v>0.07859364752974513</v>
+        <v>0.3675625684474786</v>
       </c>
       <c r="D89">
-        <v>0.3812481298977337</v>
+        <v>-0.01809175360569944</v>
       </c>
       <c r="E89">
-        <v>0.007750915677617526</v>
+        <v>0.00451150544213786</v>
       </c>
       <c r="F89">
-        <v>0.04073823848437662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02541488826183168</v>
+      </c>
+      <c r="G89">
+        <v>0.02086932073527516</v>
+      </c>
+      <c r="H89">
+        <v>0.0006595868688680873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07931393885489733</v>
+        <v>-0.1962906146672592</v>
       </c>
       <c r="C90">
-        <v>0.06952259018967243</v>
+        <v>0.3312898572361796</v>
       </c>
       <c r="D90">
-        <v>0.3420724197744751</v>
+        <v>-0.01830610501123495</v>
       </c>
       <c r="E90">
-        <v>-0.01785233378992522</v>
+        <v>-0.005466707606803412</v>
       </c>
       <c r="F90">
-        <v>-0.01499216908317898</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04924692785626564</v>
+      </c>
+      <c r="G90">
+        <v>-0.001136267809793029</v>
+      </c>
+      <c r="H90">
+        <v>-0.004948734532351275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2899940428247473</v>
+        <v>-0.2086618640923572</v>
       </c>
       <c r="C91">
-        <v>0.03833623022237153</v>
+        <v>-0.1384364258421468</v>
       </c>
       <c r="D91">
-        <v>-0.1323073456978978</v>
+        <v>-0.02792005896744547</v>
       </c>
       <c r="E91">
-        <v>-0.2234372479182564</v>
+        <v>0.08242469609367144</v>
       </c>
       <c r="F91">
-        <v>-0.07126921783220121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1994970944811374</v>
+      </c>
+      <c r="G91">
+        <v>-0.01596053908109706</v>
+      </c>
+      <c r="H91">
+        <v>0.01723668529696663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2203888930568319</v>
+        <v>-0.22724750255342</v>
       </c>
       <c r="C92">
-        <v>0.08422259523762869</v>
+        <v>0.2520673096927319</v>
       </c>
       <c r="D92">
-        <v>0.3741864236217523</v>
+        <v>-0.06008432418462093</v>
       </c>
       <c r="E92">
-        <v>-0.09990222833311262</v>
+        <v>-0.008560500809529461</v>
       </c>
       <c r="F92">
-        <v>0.06212337398759277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1450196852329515</v>
+      </c>
+      <c r="G92">
+        <v>0.05233136600727152</v>
+      </c>
+      <c r="H92">
+        <v>0.0197028664714787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1300081874935571</v>
+        <v>-0.2266071457855218</v>
       </c>
       <c r="C93">
-        <v>0.09811940961371872</v>
+        <v>0.3238849918227221</v>
       </c>
       <c r="D93">
-        <v>0.3967063050489858</v>
+        <v>-0.02528968843546059</v>
       </c>
       <c r="E93">
-        <v>0.0271500125074649</v>
+        <v>-0.01905861988090421</v>
       </c>
       <c r="F93">
-        <v>-0.06954785203127355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01990398944013786</v>
+      </c>
+      <c r="G93">
+        <v>-0.01328114981359106</v>
+      </c>
+      <c r="H93">
+        <v>-0.03901371616950916</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3286924641101008</v>
+        <v>-0.2745885426170676</v>
       </c>
       <c r="C94">
-        <v>0.07445054721473264</v>
+        <v>-0.1677014876833545</v>
       </c>
       <c r="D94">
-        <v>-0.09140038625664373</v>
+        <v>-0.01665841993406144</v>
       </c>
       <c r="E94">
-        <v>-0.2314135753296949</v>
+        <v>0.1021213612404297</v>
       </c>
       <c r="F94">
-        <v>0.0703839032861297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3536868129277299</v>
+      </c>
+      <c r="G94">
+        <v>-0.08038506504762517</v>
+      </c>
+      <c r="H94">
+        <v>0.2243893300084382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0637169704962086</v>
+        <v>-0.0711220150269144</v>
       </c>
       <c r="C95">
-        <v>0.07352369464264115</v>
+        <v>-0.09641868729274417</v>
       </c>
       <c r="D95">
-        <v>-0.03239234821282378</v>
+        <v>-0.007322245977421565</v>
       </c>
       <c r="E95">
-        <v>-0.02417626885253936</v>
+        <v>-0.06937047911702598</v>
       </c>
       <c r="F95">
-        <v>0.07348621283525966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1492080284263056</v>
+      </c>
+      <c r="G95">
+        <v>-0.05690474730865694</v>
+      </c>
+      <c r="H95">
+        <v>0.0165197936711112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1958063527622909</v>
+        <v>-0.2142072414801156</v>
       </c>
       <c r="C98">
-        <v>0.06652481077408284</v>
+        <v>-0.04777285847979681</v>
       </c>
       <c r="D98">
-        <v>0.02682688819083251</v>
+        <v>-0.0227505504360198</v>
       </c>
       <c r="E98">
-        <v>0.188752405500982</v>
+        <v>-0.0623922405083498</v>
       </c>
       <c r="F98">
-        <v>0.06645295656338655</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2567001748438575</v>
+      </c>
+      <c r="G98">
+        <v>-0.04343465737301903</v>
+      </c>
+      <c r="H98">
+        <v>-0.05539055349889635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004873116461921452</v>
+        <v>-0.005477635157412644</v>
       </c>
       <c r="C101">
-        <v>-0.004856964228768458</v>
+        <v>-0.01994342026215304</v>
       </c>
       <c r="D101">
-        <v>-0.02855443768417395</v>
+        <v>0.00753134147701335</v>
       </c>
       <c r="E101">
-        <v>0.1106108331811025</v>
+        <v>-0.02800136574228137</v>
       </c>
       <c r="F101">
-        <v>0.1748202444917626</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.005683185151734224</v>
+      </c>
+      <c r="G101">
+        <v>0.03792228027284873</v>
+      </c>
+      <c r="H101">
+        <v>0.04062132290366938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1436599089702617</v>
+        <v>-0.1187010940705732</v>
       </c>
       <c r="C102">
-        <v>0.0165867357018356</v>
+        <v>-0.08438609781417085</v>
       </c>
       <c r="D102">
-        <v>-0.04957472495122087</v>
+        <v>-0.001158355166270595</v>
       </c>
       <c r="E102">
-        <v>-0.1014465578871836</v>
+        <v>0.0450724003273764</v>
       </c>
       <c r="F102">
-        <v>-0.03446162845305397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0619066315547609</v>
+      </c>
+      <c r="G102">
+        <v>-0.01737523184221969</v>
+      </c>
+      <c r="H102">
+        <v>-0.0006779135759574839</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03885157984081014</v>
+        <v>-0.007430980592540101</v>
       </c>
       <c r="C103">
-        <v>-0.01378286577238099</v>
+        <v>-0.006737965873135861</v>
       </c>
       <c r="D103">
-        <v>-0.01551763409673399</v>
+        <v>-0.0001050819125652367</v>
       </c>
       <c r="E103">
-        <v>-0.0181998518822283</v>
+        <v>0.001860001802848571</v>
       </c>
       <c r="F103">
-        <v>0.009977723283219518</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01151063798231288</v>
+      </c>
+      <c r="G103">
+        <v>0.01609963439190248</v>
+      </c>
+      <c r="H103">
+        <v>-0.005220952941819744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05775822279005969</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.05468523835109036</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9837288698973394</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04583011662494683</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02819009623802667</v>
+      </c>
+      <c r="G104">
+        <v>0.02435265722806526</v>
+      </c>
+      <c r="H104">
+        <v>0.1072906481432473</v>
       </c>
     </row>
   </sheetData>
